--- a/浙江项目信息.xlsx
+++ b/浙江项目信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BFF45E-0591-4852-9A36-85A077ED972E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E14A4F-57C4-4D43-BAE9-0A5F8DD01DBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,19 +133,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logs/log.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tomcat 
 路径：D:\huang\tomcat7_zjjkjk_v5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\logs\zjjkjklog.log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D:\huang\tomcat7_zjjkjk_v5\webapps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,12 +240,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home/wonders/apache-tomcat-mbupload/webapps/ZjjkMbUpload/WEB-INF/logs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/wonders
-/wonders</t>
+    <t>社区填报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\129\tootle\apache-tomcat-6.0.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.0.130 堡垒机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.0.128 堡垒机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0009@10.44.0.130/12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.0.130</t>
+  </si>
+  <si>
+    <t>administrator/163.comcom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat 
+路径：D:\huang\tomcat7_zjjkmbupload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/wonders/apache-tomcat-mbupload/webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\huang\tomcat7_zjjkmbupload/webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\logs\zjjkjk\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\logs\zjjkjk\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\logs\ZjjkMbUpload\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\logs\ZjjkMbUpload\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -344,11 +391,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,6 +465,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -399,7 +490,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -683,10 +782,10 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -728,78 +827,66 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="21">
         <v>7001</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5">
-        <v>7001</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="14"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
-        <v>7001</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>21</v>
@@ -816,8 +903,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
+      <c r="A6" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
@@ -835,37 +922,37 @@
         <v>23</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>31</v>
+      <c r="A8" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
@@ -874,38 +961,48 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>8081</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8611</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>32</v>
+      <c r="A10" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
@@ -914,7 +1011,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="8">
         <v>8079</v>
@@ -926,7 +1023,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -934,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -944,7 +1041,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -954,10 +1053,14 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1018,7 +1121,7 @@
     <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B2:B4"/>
@@ -1026,6 +1129,9 @@
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1035,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D288AE-F7E1-4A85-A2B6-393DDA320F5C}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1046,104 +1152,141 @@
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="B4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/浙江项目信息.xlsx
+++ b/浙江项目信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E14A4F-57C4-4D43-BAE9-0A5F8DD01DBD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7AA86-F129-4EC3-A2DD-02ADADC6F584}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="84">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
   </si>
   <si>
     <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root/zjjkzx201906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.44.25.125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +293,95 @@
   </si>
   <si>
     <t>\logs\ZjjkMbUpload\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.0.126/CMIDB  zjmbsq/zjmbsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区填报报表：wonders/birttomcat7
+社区填报系统：home/zjmbsqtomcat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区填报系统：home/zjmbsqtomcat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式</t>
+  </si>
+  <si>
+    <t>D:\129\tootle\apache-tomcat-6.0.33\webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区填报报表：wonders/birttomcat7/webapps
+社区填报系统：home/zjmbsqtomcat7/webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区填报系统：home/zjmbsqtomcat7/webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(内网)http://10.10.3.107:9091/zjmbsq
+(VPN)http://10.44.30.220:9090/zjmbsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(内网)http://10.10.3.107:9090/zjmb(新)
+(VPN)http://10.44.30.220:7001/zjmbapi（新）
+(内网)http://10.10.3.107:9090/zjmb(新)
+(VPN)http://10.44.30.220:7001/zjmnapi（新）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代谢病面访</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\server\tomcat7_zs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\server\tomcat7_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.133:1521/orcl dxbmf/dxbmf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.133:1521/orcl dxbmf_cs/dxbmf_cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\server\tomcat7_zs\webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\server\tomcat7_cs\webapps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +404,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +453,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,9 +557,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -472,12 +570,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -498,6 +596,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -795,12 +932,12 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" customWidth="1"/>
-    <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="6" max="7" width="47.44140625" customWidth="1"/>
+    <col min="8" max="8" width="74" customWidth="1"/>
+    <col min="9" max="9" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -811,264 +948,373 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="23">
+        <v>7001</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="23">
+        <v>7001</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E4" s="23">
         <v>7001</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="F4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5">
         <v>8079</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>8089</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7">
         <v>8081</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="7">
         <v>8611</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8">
         <v>8079</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="30">
+        <v>8080</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="30">
+        <v>8080</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="35">
+        <v>8081</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="35">
+        <v>8079</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="17" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1348,7 @@
     <row r="47" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1119,19 +1365,22 @@
     <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,7 +1393,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1156,130 +1405,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/浙江项目信息.xlsx
+++ b/浙江项目信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE7AA86-F129-4EC3-A2DD-02ADADC6F584}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7D16C-3973-43EA-8E5A-3A9BF7C1245F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目部署" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,19 +248,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.44.0.130 堡垒机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10.44.0.128 堡垒机</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0009@10.44.0.130/12345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.44.0.130</t>
   </si>
   <si>
     <t>administrator/163.comcom</t>
@@ -382,6 +371,38 @@
   </si>
   <si>
     <t>C:\server\tomcat7_cs\webapps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口服务器-正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病监测服务器-正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代谢病面访数据库-正式-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代谢病面访服务器-正式-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病数据库-正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢病数据库-测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,8 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,6 +592,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,44 +655,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,11 +943,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -948,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>12</v>
@@ -957,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
@@ -967,10 +992,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -979,62 +1004,62 @@
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="13">
         <v>7001</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="27" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="13">
         <v>7001</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="16"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="13">
         <v>7001</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1050,14 +1075,14 @@
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1077,14 +1102,14 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1100,14 +1125,14 @@
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1123,18 +1148,18 @@
         <v>8081</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1142,24 +1167,24 @@
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="7">
         <v>8611</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1182,7 +1207,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1201,118 +1226,118 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="16">
+        <v>8080</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="E13" s="16">
+        <v>8080</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="30">
-        <v>8080</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="31" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="30">
-        <v>8080</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="E15" s="18">
+        <v>8081</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="35">
-        <v>8081</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="D16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="18">
+        <v>8079</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="35">
-        <v>8079</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1394,11 @@
     <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B13"/>
@@ -1376,11 +1406,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1390,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D288AE-F7E1-4A85-A2B6-393DDA320F5C}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1405,130 +1430,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="34" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="34" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="34" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="34" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="C10" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,8 +1580,6 @@
     <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/浙江项目信息.xlsx
+++ b/浙江项目信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B7D16C-3973-43EA-8E5A-3A9BF7C1245F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B458DC6-3DE7-494E-8BD4-B35BAB1204D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,18 @@
   </si>
   <si>
     <t>慢病数据库-测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.3.148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区填报服务器-正式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,6 +622,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,33 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +959,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -992,10 +1004,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1010,19 +1022,19 @@
       <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1035,13 +1047,13 @@
       <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="27"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1054,12 +1066,12 @@
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="27"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1082,7 +1094,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1109,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1144,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1159,7 +1171,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1196,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1207,7 +1219,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1226,10 +1238,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1244,7 +1256,7 @@
       <c r="F12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="31" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="14"/>
@@ -1253,8 +1265,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="14" t="s">
         <v>62</v>
       </c>
@@ -1267,14 +1279,14 @@
       <c r="F13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1318,7 +1330,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
@@ -1394,11 +1406,6 @@
     <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B13"/>
@@ -1406,6 +1413,11 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1418,7 +1430,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1444,133 +1456,159 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="19" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="19" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/浙江项目信息.xlsx
+++ b/浙江项目信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\work-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B458DC6-3DE7-494E-8BD4-B35BAB1204D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1040D6-74D3-4F59-87F1-5B8FB26F3AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目部署" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,10 @@
   </si>
   <si>
     <t>社区填报服务器-正式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.44.0.126/CMIDB  zjmbsq_cs/zjmbsq_cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,6 +632,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -647,30 +675,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -955,11 +959,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1008,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1022,19 +1026,19 @@
       <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="29" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1047,13 +1051,13 @@
       <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
@@ -1066,12 +1070,12 @@
       <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1098,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1121,7 +1125,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1144,7 +1148,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1171,7 +1175,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1200,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1219,7 +1223,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1238,10 +1242,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -1256,7 +1260,7 @@
       <c r="F12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H12" s="14"/>
@@ -1265,8 +1269,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="14" t="s">
         <v>62</v>
       </c>
@@ -1279,14 +1283,14 @@
       <c r="F13" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="31"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="14" t="s">
         <v>48</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1330,7 +1334,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
@@ -1406,6 +1410,11 @@
     <row r="68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B13"/>
@@ -1413,11 +1422,6 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1429,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D288AE-F7E1-4A85-A2B6-393DDA320F5C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
